--- a/biology/Botanique/Flore_du_mont_Ventoux/Flore_du_mont_Ventoux.xlsx
+++ b/biology/Botanique/Flore_du_mont_Ventoux/Flore_du_mont_Ventoux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La flore du mont Ventoux est riche et exceptionnelle grâce à la configuration du massif et son exposition (une face nord, une face sud). Elle croît sur les deux versants : le versant sud (adret) est bien exposé au soleil et la végétation y est méditerranéenne presque jusqu'au sommet. Le versant nord (ubac) est moins ensoleillé et sa flore est médioeuropéenne.
 </t>
@@ -511,7 +523,9 @@
           <t>Quelques espèces rencontrées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Absinthe, Artemisia absinthium L. Plante à saveur très amère, connue pour son utilisation dans la fabrication de l'extrait d'absinthe, et d'un apéritif dont la fabrication a été interdite en France en 1915, en raison de ses effets toxiques sur la santé. On la trouve dans la partie orientale du massif.
 Ajonc de Provence, Ulex parviflorus se colore de fleurs jaunes dès l’hiver.
@@ -609,7 +623,9 @@
           <t>Plantes d'altitude et plantes rares</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La plupart des plantes du sommet du mont Ventoux poussent également dans les Alpes ainsi que dans les Pyrénées. Mais certaines, très rares, ne se rencontrent que sur le mont Ventoux. D'une manière générale il faut éviter de ramasser les plantes décrites ci-dessous, quand ce n'est pas tout à fait interdit (espèce protégée).
 Ail à fleurs de narcisse, Allium narcissiflorum Vill. Flanc nord, 1 800 m d'altitude. Pousse dans les éboulis. Floraison de juillet à août. On le retrouve dans les Alpes sud-occidentales.
